--- a/AFU_Audit_Log.xlsx
+++ b/AFU_Audit_Log.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-01 21:34:05</t>
+          <t>2026-01-05 13:53:38</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
